--- a/arg/args_60.xlsx
+++ b/arg/args_60.xlsx
@@ -381,176 +381,110 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.1116684140081589</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.888331585991841</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.5588524420998033</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.4411475579001967</v>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>-0.2002241648084362</v>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.2072053656778115</v>
-      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>-0.1242959044740518</v>
-      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>-0.2247262163661221</v>
-      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.115741326989098</v>
-      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.06027464441124294</v>
-      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.04499008962517338</v>
-      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.009411531694459253</v>
-      </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>-0.0025344228605005</v>
-      </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0.002901053120571292</v>
-      </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.01161526360716649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0.01671164690364092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0.00421263601548771</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+    </row>
+    <row r="19" spans="1:1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.0003201016984843624</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+    </row>
+    <row r="20" spans="1:1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0.0002344079161922882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+    </row>
+    <row r="21" spans="1:1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.01030410637509184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0.000320789264361578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="1">
         <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0.0009454142839303403</v>
       </c>
     </row>
   </sheetData>
